--- a/SchVictorina.WebAPI/Config/excels/mushrooms.xlsx
+++ b/SchVictorina.WebAPI/Config/excels/mushrooms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\schvictorina\schvictorina\SchVictorina.WebAPI\Config\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0763F310-D43E-4E48-B740-119D74D1A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E55B6-82C0-490A-B3EB-AA105230D337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Название</t>
   </si>
@@ -41,29 +41,6 @@
   </si>
   <si>
     <t>filter</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Белый гриб (боровик)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – самая ценная находка для грибника. У него массивная светлая ножка, а цвет шляпки может отличаться от кремового до темно-коричневого, в зависимости от региона произрастания. На изломе мякоть не меняет цвет, и обладает легким ореховым ароматом. Он бывает нескольких видов: березовый, сосновый и дубовый. Все они схожи по внешним характеристикам и годятся в пищу.</t>
-    </r>
   </si>
   <si>
     <t>Белый гриб</t>
@@ -112,63 +89,13 @@
     <t>Вешенка</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Волнушки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, белая и розовая, имеют вдавленную по центру шляпку, диаметр которой может достигать 8 см. У волнушки сладкий приятный запах, а на изломе плодовое тело начинает выделять липкий клейкий сок. Их можно найти не только в лесу, но и на открытых местах.</t>
-    </r>
-  </si>
-  <si>
-    <t>Волнушки</t>
-  </si>
-  <si>
-    <t>Лисички – чаще бывают ярко-желтыми, но существуют и светлые виды (лисичка белая). У них цилиндрическая ножка, которая расширяется кверху, а шляпка неправильной формы, слегка вдавлена в середину.</t>
-  </si>
-  <si>
     <t>Лисички</t>
   </si>
   <si>
-    <t>Масленок бывает нескольких видов (настоящий, кедровый, лиственный, зернистый, белый, желто-бурый, раскрашенный, рыже-красный, рыжий, серый и др.). Самым распространенным считается настоящий масленок, который растет на песчаных почвах в лиственных лесах. Шляпка плоская, с небольшим бугорком посередине, а характерный признак – слизистая кожица, которая легко отделяется от мякоти.</t>
-  </si>
-  <si>
-    <t>Масленок</t>
-  </si>
-  <si>
-    <t>Опята, луговые, осенние, летние и зимние, принадлежат к съедобным сортам, которые очень легко собирать, так как они растут большими колониями на стволах деревьев и пнях. Цвет опенка может отличаться в зависимости от региона произрастания и вида, но, как правило, его оттенок варьируется от кремового до светло-коричневого. Характерная особенность съедобных опят – наличие кольца на ножке, которое нет у ложных двойников.</t>
-  </si>
-  <si>
     <t>Опята</t>
   </si>
   <si>
-    <t>Подосиновики принадлежат к трубчатым: у них толстая ножка и шляпка правильной формы, цвет которой отличается в зависимости от вида от кремового до желтого и темно-коричневого.</t>
-  </si>
-  <si>
-    <t>Подосиновики</t>
-  </si>
-  <si>
-    <t>Рыжики – яркие, красивые и вкусные, которые можно встретить в хвойных лесах. Шляпка правильной формы, плоская или воронкообразная. Ножка цилиндрическая и плотная, по цвету совпадает с шляпкой. Мякоть оранжевая, но на воздухе быстро зеленеет и начинает выделять сок с ярко выраженным запахом хвойной смолы. Запах приятный, а на вкус его мякоть слегка острая.</t>
-  </si>
-  <si>
     <t>Рыжики</t>
-  </si>
-  <si>
-    <t>Бледная поганка – самый опасный житель леса, так как даже небольшая его часть может вызвать летальный исход. Несмотря на то, что она растет практически во всех лесах, встретить ее достаточно сложно. Внешне он абсолютно пропорциональный и очень привлекательный: у молодых экземпляров шляпка шаровидная с легким зеленоватым оттенком, с возрастом она белеет и вытягивается. Бледные поганки часто путают с молодыми поплавками (условно-съедобными грибами), шампиньонами и сыроежками, а поскольку один крупный экземпляр может легко отравить несколько взрослых человек, при малейших сомнениях подозрительный или сомнительный экземпляр лучше не класть в корзинку.</t>
   </si>
   <si>
     <t>Бледная поганка</t>
@@ -203,9 +130,6 @@
     </r>
   </si>
   <si>
-    <t>Сатанинский – один из самых распространенных двойников белого гриба. Отличить его просто по светлой шляпке и ярко окрашенной ножке, нехарактерной для боровиков.</t>
-  </si>
-  <si>
     <t>Сатанинский</t>
   </si>
   <si>
@@ -224,9 +148,6 @@
     <t>Говорушка восковатая</t>
   </si>
   <si>
-    <t>У этого вида уплощённая шляпка, цвет которой бывает светло-зелёным, желтоватым, бледно-коричневым, грязно-розовым и другим. Верхняя часть ножки окружена защитным кольцом, образующим складки, а основание как бы вставлено в похожее кольцо, растущее из земли. По этому признаку бледную поганку легко отличить от других видов.</t>
-  </si>
-  <si>
     <t>Вонючий мухомор</t>
   </si>
   <si>
@@ -255,18 +176,150 @@
   </si>
   <si>
     <t>На сколько ядовит гриб на фото?</t>
+  </si>
+  <si>
+    <t>Галерина окаймлённая</t>
+  </si>
+  <si>
+    <t>Внешне напоминает опёнок, но на ножке нет кольца. Растёт поодиночке или маленькими группами, водится преимущественно в хвойных лесах, крайне редко встречается в смешанных.</t>
+  </si>
+  <si>
+    <t>Волоконница патуйяра</t>
+  </si>
+  <si>
+    <t>Принадлежит к роду Inocybe и считается одним из самых опасных. Предпочитает глинистые и известковые почвы, растёт в парках, садах, хвойных и смешанных посадках, лиственных лесах. Образует маленькие семьи и обширные колонии, может расти и одиночно. Шляпка и ножка окрашены одинаково: у молодых экземпляров они белые, у взрослых — жёлтые, а у старых — красноватые. Мускарина в волоконнице в 20 раз больше, чем в мухоморе</t>
+  </si>
+  <si>
+    <t>Шампиньон</t>
+  </si>
+  <si>
+    <t>Молодые грибы имеют шарообразную шляпку, затянутую плёнкой с нижней стороны. По мере взросления пелена разрывается, на ножке остаётся волнистое кольцо. Пластинки сначала почти белые, затем становятся серыми, у взрослых шампиньонов они коричневые, у старых — почти чёрные. К этому времени шляпка становится почти плоской. Шампиньоны могут расти везде, где есть слегка влажная плодородная почва.</t>
+  </si>
+  <si>
+    <t>Груздь</t>
+  </si>
+  <si>
+    <t>Моховик</t>
+  </si>
+  <si>
+    <t>Шляпка моховика окрашена в тёмно-зелёный, бурый или жёлто-бурый цвет. Мякоть на изломе сначала жёлтая или бурая, затем становится синей или зелёной. Ножка обычно желтоватая, как и нижняя часть шляпки. Перед приготовлением моховик обязательно чистят. Плодоношение начинается в июне и заканчивается в октябре. Ареал — хвойные и смешанные леса умеренных широт.</t>
+  </si>
+  <si>
+    <t>Скрипуха</t>
+  </si>
+  <si>
+    <t>Отличительный признак этой разновидности — своеобразный скрипящий звук, который издаёт шляпка, если её потереть. По внешнему виду гриб напоминает груздь, но отличается жёлто-зелёной окраской пластинок и бархатистой поверхностью шляпки. Мякоть острая на вкус, издаёт приятный аромат, на изломе выделяет белый сок, краснеющий через некоторое время. Гриб считается условно-съедобным, пригоден к засолке после длительного вымачивания.</t>
+  </si>
+  <si>
+    <t>У валуя белая ножка и бежевая шляпка с опущенными краями. Поверхность скользкая, пластинки бежево-белые. Перед употреблением в пищу обязательно снимают шкурку, долго вымачивают, затем отваривают.</t>
+  </si>
+  <si>
+    <t>Валуй</t>
+  </si>
+  <si>
+    <t>Подосиновик</t>
+  </si>
+  <si>
+    <t>Маслёнок</t>
+  </si>
+  <si>
+    <t>Бледная поганка – самый опасный житель леса, так как даже небольшая его часть может вызвать летальный исход. Несмотря на то, что она растет практически во всех лесах, встретить ее достаточно сложно. Внешне он абсолютно пропорциональный и очень привлекательный: у молодых экземпляров шляпка шаровидная с легким зеленоватым оттенком, с возрастом она белеет и вытягивается. Бледные поганки часто путают с молодыми поплавками (условно-съедобными грибами), шампиньонами и сыроежками, а поскольку один крупный экземпляр может легко отравить несколько взрослых человек, при малейших сомнениях подозрительный или сомнительный экземпляр лучше не класть в корзинку. У этого вида уплощённая шляпка, цвет которой бывает светло-зелёным, желтоватым, бледно-коричневым, грязно-розовым и другим. Верхняя часть ножки окружена защитным кольцом, образующим складки, а основание как бы вставлено в похожее кольцо, растущее из земли. По этому признаку бледную поганку легко отличить от других видов.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Белый гриб (боровик)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – самая ценная находка для грибника. Внешне напоминает бочонок. У него массивная светлая ножка, а цвет шляпки может отличаться от кремового до темно-коричневого, в зависимости от региона произрастания. На изломе мякоть не меняет цвет, и обладает легким ореховым ароматом. Он бывает нескольких видов: березовый, сосновый и дубовый. Все они схожи по внешним характеристикам и годятся в пищу. Плодоношение начинается в июне и заканчивается ближе ко второй декаде октября.</t>
+    </r>
+  </si>
+  <si>
+    <t>Волнушка</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Волнушки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, белая и розовая, имеют вдавленную по центру шляпку (украшенной бахромой), диаметр которой может достигать 8 см. У волнушки сладкий приятный запах, а на изломе плодовое тело начинает выделять липкий клейкий сок. Их можно найти не только в лесу, но и на открытых местах. Время сбора — с начала августа до первой декады октября. Перед приготовлением грибы нужно вымачивать, чтобы устранить горечь.</t>
+    </r>
+  </si>
+  <si>
+    <t>Для лисичек характерен плавный переход ножки в шляпку воронкообразной формы. У них цилиндрическая ножка, которая расширяется кверху, а шляпка неправильной формы, слегка вдавлена в середину. Лисичка приятна на вид и имеет отличный вкус. Мякоть жёлто-рыжая (но существуют и светлые виды), по цвету не отличается от поверхности ножки и шляпки. Поверхность бархатистая, высота гриба — до 13 см. Лисички водятся во всех типах лесов, плодоносят с начала лета до поздней осени.</t>
+  </si>
+  <si>
+    <t>Масленок бывает нескольких видов (настоящий, кедровый, лиственный, зернистый, белый, желто-бурый, раскрашенный, рыже-красный, рыжий, серый и др.). Самым распространенным считается настоящий масленок, который растет на песчаных почвах в лиственных лесах. Шляпка плоская, с небольшим бугорком посередине, а характерный признак – слизистая кожица, которая легко отделяется от мякоти. Выпуклая шляпка достигает 10 см в поперечнике. Мякоть представляет собой сочную, слегка рыхлую субстанцию насыщенного жёлтого цвета. В первые дни с нижней стороны шляпки есть защитная плёнка, затем она разрывается, и вокруг ножки остаётся кольцо. Семьи маслят можно отыскать в хвойных лесах, в основном на супесчаной почве.</t>
+  </si>
+  <si>
+    <t>Опята, луговые, осенние, летние и зимние, принадлежат к съедобным сортам, которые очень легко собирать, так как они растут большими колониями на стволах деревьев и пнях. Цвет опенка варьируется от кремового до светло-коричневого. Характерная особенность съедобных опят – наличие кольца на ножке, которое нет у ложных двойников. У этого гриба есть два вида, один из которых произрастает на полянах, второй — на пнях и выступающих из земли корневых ответвлениях. Длина ножки составляет 12 см, коричневая шляпка достигает 9−10 см в поперечнике. Мякоть сухая и упругая, с приятным ароматом. Плодоношение длится с начала лета до поздней осени. Опята растут маленькими и большими семьями, иногда образуют ведьмины кольца.</t>
+  </si>
+  <si>
+    <t>У подосиновиков толстая ножка и шляпка правильной формы. Оттенок шляпки этого гриба повторяет цвет опавшей листвы, окружающей плодовое тело. Мякоть светлая, при разломе темнеет, приобретая тёмно-коричневый или бурый оттенок. Высота ножки достигает 15 см. Красноголовик растёт одиночно или семьями на мелколесье, в осиновых и смешанных лесах, созревание начинается в начале лета и длится до середины осени.</t>
+  </si>
+  <si>
+    <t>Рыжики – яркие, красивые и вкусные, которые можно встретить в хвойных лесах. Шляпка правильной формы, плоская или воронкообразная. Бахрома на шляпке отсутствует. Ножка цилиндрическая и плотная, по цвету совпадает с шляпкой. Мякоть на срезе рыжая, по краям зеленоватая, но на воздухе быстро зеленеет и начинает выделять сок с ярко выраженным запахом хвойной смолы. Запах приятный, а на вкус его мякоть слегка острая. При внешнем сходстве с волнушками рыжик отличается оранжевым оттенком и отсутствием млечного сока.</t>
+  </si>
+  <si>
+    <t>Подберёзовик</t>
+  </si>
+  <si>
+    <t>У типичных экземпляров подушковидная шляпка тёмно-коричневого или светло-коричневого цвета, белая мякоть, розовеющая на срезе и светло-серая чешуйчатая ножка высотой до 15 см. Обабок растёт на опушках смешанных и лиственных лесов, плодоносит с начала лета до середины ноября.</t>
+  </si>
+  <si>
+    <t>Смертельно опасен, привлекателен внешне, с широкой плотной ножкой и подушковидной шляпкой. Кожица бархатистая, приятная на ощупь, светло-оливковая, грязно-белая или серая. Мякоть белая, на изломе краснеет, розовеет или синеет. Излюбленные места — лесостепи. Сатанинский – один из самых распространенных двойников белого гриба. Отличить его просто по светлой шляпке и ярко окрашенной ножке, нехарактерной для боровиков. Один из самых распространенных двойников белого гриба. Отличить его просто по светлой шляпке и ярко окрашенной ножке, нехарактерной для боровиков.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Груздь водится в смешанных и лиственных лесах, его легко отличить по шляпке, покрытой пушком. Края волнистые, центральная часть немного вдавлена. Поверхность шляпки мокрая, сухая или слизистая. На изломе выделяется горький млечный сок, мякоть сразу розовеет или желтеет. Ножка белая и плотная. Плодовые тела скрываются под листьями, так что их можно обнаружить благодаря холмикам. Сбор продолжается с июня по конец сентября. Их принято замачивать для удаления горечи, после чего засаливать и мариновать. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,12 +397,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -630,20 +691,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,158 +715,236 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +958,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,30 +979,30 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -877,7 +1016,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -891,7 +1030,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -905,7 +1044,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
